--- a/report/stock_report_23-01-18 .xlsx
+++ b/report/stock_report_23-01-18 .xlsx
@@ -234,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -290,6 +290,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -300,19 +306,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -725,39 +718,39 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="117" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col width="3.5" customWidth="1" style="25" min="1" max="1"/>
-    <col width="10.6640625" customWidth="1" style="28" min="2" max="2"/>
-    <col width="11.1640625" bestFit="1" customWidth="1" style="28" min="3" max="4"/>
-    <col width="10.83203125" bestFit="1" customWidth="1" style="28" min="5" max="7"/>
-    <col width="9.1640625" bestFit="1" customWidth="1" style="25" min="8" max="8"/>
-    <col width="10.6640625" customWidth="1" style="25" min="9" max="9"/>
-    <col width="8.83203125" customWidth="1" style="25" min="10" max="10"/>
-    <col width="11.83203125" bestFit="1" customWidth="1" style="25" min="12" max="12"/>
-    <col width="47.1640625" bestFit="1" customWidth="1" style="25" min="13" max="13"/>
+    <col width="3.5" customWidth="1" style="18" min="1" max="1"/>
+    <col width="10.6640625" customWidth="1" style="4" min="2" max="2"/>
+    <col width="11.1640625" bestFit="1" customWidth="1" style="4" min="3" max="4"/>
+    <col width="10.83203125" bestFit="1" customWidth="1" style="4" min="5" max="7"/>
+    <col width="9.1640625" bestFit="1" customWidth="1" style="18" min="8" max="8"/>
+    <col width="12.6640625" bestFit="1" customWidth="1" style="18" min="9" max="9"/>
+    <col width="8.83203125" customWidth="1" style="18" min="10" max="10"/>
+    <col width="11.83203125" bestFit="1" customWidth="1" style="18" min="12" max="12"/>
+    <col width="49.1640625" customWidth="1" style="18" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="29">
-      <c r="B1" s="27" t="n"/>
-      <c r="C1" s="28" t="n"/>
-      <c r="D1" s="28" t="n"/>
-      <c r="E1" s="28" t="n"/>
-      <c r="F1" s="28" t="n"/>
-      <c r="G1" s="28" t="n"/>
+    <row r="1" s="18">
+      <c r="B1" s="20" t="n"/>
+      <c r="C1" s="4" t="n"/>
+      <c r="D1" s="4" t="n"/>
+      <c r="E1" s="4" t="n"/>
+      <c r="F1" s="4" t="n"/>
+      <c r="G1" s="4" t="n"/>
     </row>
     <row r="2">
-      <c r="B2" s="19" t="inlineStr">
-        <is>
-          <t>01월</t>
+      <c r="B2" s="21" t="inlineStr">
+        <is>
+          <t>01M</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>52주 최고</t>
+          <t>52W High</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -772,198 +765,197 @@
       <c r="G2" s="2" t="n">
         <v>-0.4</v>
       </c>
-      <c r="I2" s="19" t="inlineStr">
+      <c r="I2" s="21" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="J2" s="20" t="n"/>
-      <c r="L2" s="19" t="inlineStr">
+      <c r="J2" s="22" t="n"/>
+      <c r="L2" s="21" t="inlineStr">
         <is>
           <t>contents</t>
         </is>
       </c>
-      <c r="M2" s="19" t="inlineStr">
+      <c r="M2" s="21" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="14" t="inlineStr">
-        <is>
-          <t>애플</t>
-        </is>
-      </c>
-      <c r="C3" s="30" t="n">
+      <c r="B3" s="13" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="C3" s="27" t="n">
         <v>179.61</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="27">
         <f>C3*0.9</f>
         <v/>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="27">
         <f>C3*0.8</f>
         <v/>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="27">
         <f>C3*0.7</f>
         <v/>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="27">
         <f>C3*0.6</f>
         <v/>
       </c>
-      <c r="I3" s="21" t="inlineStr">
-        <is>
-          <t>종목별 특정 마디 
-도달 시 매수</t>
-        </is>
-      </c>
-      <c r="J3" s="22" t="n"/>
+      <c r="I3" s="23" t="inlineStr">
+        <is>
+          <t>Buy stock when a node is arrived.</t>
+        </is>
+      </c>
+      <c r="J3" s="24" t="n"/>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>일간 등락률</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="M3" s="17" t="inlineStr">
         <is>
-          <t>특이사항 발생 시 알림(5% 이상) or 특이사항 없음.</t>
+          <t>Alarm if more than 5% change occurs.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="14" t="inlineStr">
-        <is>
-          <t>알파벳</t>
-        </is>
-      </c>
-      <c r="C4" s="30" t="n">
-        <v>151.55</v>
-      </c>
-      <c r="D4" s="30">
+      <c r="B4" s="13" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="C4" s="27" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D4" s="27">
         <f>C4*0.9</f>
         <v/>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="27">
         <f>C4*0.8</f>
         <v/>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="27">
         <f>C4*0.7</f>
         <v/>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="27">
         <f>C4*0.6</f>
         <v/>
       </c>
-      <c r="I4" s="23" t="n"/>
-      <c r="J4" s="24" t="n"/>
+      <c r="I4" s="25" t="n"/>
+      <c r="J4" s="26" t="n"/>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>하락 마디</t>
+          <t>Node</t>
         </is>
       </c>
       <c r="M4" s="17" t="inlineStr">
         <is>
-          <t>신규 하락마디 도달 시 알림.</t>
+          <t>Alarm if new node is arrived.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>엔비디아</t>
-        </is>
-      </c>
-      <c r="C5" s="30" t="n">
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="C5" s="27" t="n">
         <v>289.46</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="27">
         <f>C5*0.9</f>
         <v/>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="27">
         <f>C5*0.8</f>
         <v/>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="27">
         <f>C5*0.7</f>
         <v/>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="27">
         <f>C5*0.6</f>
         <v/>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>금리 관련</t>
+          <t>FED interest</t>
         </is>
       </c>
       <c r="M5" s="17" t="inlineStr">
         <is>
-          <t>기준금리 발표 일주일 전부터 카운트 다운.</t>
+          <t>Countdown a week before FED interest announcement.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>테슬라</t>
-        </is>
-      </c>
-      <c r="C6" s="30" t="n">
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="C6" s="27" t="n">
         <v>384.29</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="27">
         <f>C6*0.9</f>
         <v/>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="27">
         <f>C6*0.8</f>
         <v/>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="27">
         <f>C6*0.7</f>
         <v/>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="27">
         <f>C6*0.6</f>
         <v/>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>경기 관련</t>
+          <t>CPI</t>
         </is>
       </c>
       <c r="M6" s="17" t="inlineStr">
         <is>
-          <t>CPI지수 발표 일주일 전부터 카운트 다운.</t>
+          <t>Countdown a week before CPI announcement.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="13" t="inlineStr">
-        <is>
-          <t>코카콜라</t>
-        </is>
-      </c>
-      <c r="C7" s="30" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="D7" s="30">
+      <c r="B7" s="14" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="C7" s="27" t="n">
+        <v>151.55</v>
+      </c>
+      <c r="D7" s="27">
         <f>C7*0.9</f>
         <v/>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="27">
         <f>C7*0.8</f>
         <v/>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="27">
         <f>C7*0.7</f>
         <v/>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="27">
         <f>C7*0.6</f>
         <v/>
       </c>
@@ -971,25 +963,25 @@
     <row r="8">
       <c r="B8" s="15" t="inlineStr">
         <is>
-          <t>펩시</t>
-        </is>
-      </c>
-      <c r="C8" s="30" t="n">
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="C8" s="27" t="n">
         <v>186.84</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="27">
         <f>C8*0.9</f>
         <v/>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="27">
         <f>C8*0.8</f>
         <v/>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="27">
         <f>C8*0.7</f>
         <v/>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="27">
         <f>C8*0.6</f>
         <v/>
       </c>
@@ -1000,22 +992,22 @@
           <t>ASML</t>
         </is>
       </c>
-      <c r="C9" s="30" t="n">
+      <c r="C9" s="27" t="n">
         <v>661.6</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="27">
         <f>C9*0.9</f>
         <v/>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="27">
         <f>C9*0.8</f>
         <v/>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="27">
         <f>C9*0.7</f>
         <v/>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="27">
         <f>C9*0.6</f>
         <v/>
       </c>
@@ -1026,22 +1018,22 @@
           <t>QQQ</t>
         </is>
       </c>
-      <c r="C10" s="30" t="n">
+      <c r="C10" s="27" t="n">
         <v>376.22</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="27">
         <f>C10*0.9</f>
         <v/>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="27">
         <f>C10*0.8</f>
         <v/>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="27">
         <f>C10*0.7</f>
         <v/>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="27">
         <f>C10*0.6</f>
         <v/>
       </c>
@@ -1052,100 +1044,100 @@
           <t>SPY</t>
         </is>
       </c>
-      <c r="C11" s="30" t="n">
+      <c r="C11" s="27" t="n">
         <v>462.07</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="27">
         <f>C11*0.9</f>
         <v/>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="27">
         <f>C11*0.8</f>
         <v/>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="27">
         <f>C11*0.7</f>
         <v/>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="27">
         <f>C11*0.6</f>
         <v/>
       </c>
     </row>
-    <row r="13" customFormat="1" s="29">
-      <c r="B13" s="27" t="n"/>
-      <c r="C13" s="28" t="n"/>
-      <c r="D13" s="28" t="n"/>
-      <c r="E13" s="28" t="n"/>
-      <c r="F13" s="28" t="n"/>
-      <c r="G13" s="28" t="n"/>
+    <row r="13" s="18">
+      <c r="B13" s="20" t="n"/>
+      <c r="C13" s="4" t="n"/>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="4" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="19" t="inlineStr">
-        <is>
-          <t>01월</t>
+      <c r="B14" s="21" t="inlineStr">
+        <is>
+          <t>01M</t>
         </is>
       </c>
       <c r="C14" s="9" t="inlineStr">
         <is>
-          <t>시작가</t>
+          <t>Start</t>
         </is>
       </c>
       <c r="D14" s="9" t="inlineStr">
         <is>
-          <t>하락률</t>
+          <t>Drop</t>
         </is>
       </c>
       <c r="E14" s="9" t="inlineStr">
         <is>
-          <t>현재가</t>
+          <t>Now</t>
         </is>
       </c>
       <c r="F14" s="9" t="inlineStr">
         <is>
-          <t>하락률</t>
+          <t>Drop</t>
         </is>
       </c>
       <c r="G14" s="9" t="inlineStr">
         <is>
-          <t>월간 변동</t>
-        </is>
-      </c>
-      <c r="I14" s="19" t="inlineStr">
+          <t>M Diff</t>
+        </is>
+      </c>
+      <c r="I14" s="21" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="J14" s="19" t="inlineStr">
+      <c r="J14" s="21" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="L14" s="19" t="inlineStr">
+      <c r="L14" s="21" t="inlineStr">
         <is>
           <t>contents</t>
         </is>
       </c>
-      <c r="M14" s="19" t="inlineStr">
+      <c r="M14" s="21" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="14" t="inlineStr">
-        <is>
-          <t>애플</t>
-        </is>
-      </c>
-      <c r="C15" s="30" t="n">
+      <c r="B15" s="13" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="C15" s="27" t="n">
         <v>125.07</v>
       </c>
       <c r="D15" s="10">
         <f>(C15-C3)/C3</f>
         <v/>
       </c>
-      <c r="E15" s="30" t="n">
+      <c r="E15" s="27" t="n">
         <v>135.94</v>
       </c>
       <c r="F15" s="10">
@@ -1158,7 +1150,7 @@
       </c>
       <c r="I15" s="6" t="inlineStr">
         <is>
-          <t>돈복사가능</t>
+          <t>Copy money</t>
         </is>
       </c>
       <c r="J15" s="7" t="n">
@@ -1166,26 +1158,30 @@
       </c>
       <c r="L15" s="6" t="inlineStr">
         <is>
-          <t>일간 등락률</t>
-        </is>
-      </c>
-      <c r="M15" s="17" t="n"/>
+          <t>Daily</t>
+        </is>
+      </c>
+      <c r="M15" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TSLA has a big change. 7.43%    </t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="B16" s="14" t="inlineStr">
-        <is>
-          <t>알파벳</t>
-        </is>
-      </c>
-      <c r="C16" s="30" t="n">
-        <v>89.12</v>
+      <c r="B16" s="13" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="C16" s="27" t="n">
+        <v>62.95</v>
       </c>
       <c r="D16" s="10">
         <f>(C16-C4)/C4</f>
         <v/>
       </c>
-      <c r="E16" s="30" t="n">
-        <v>91.29000000000001</v>
+      <c r="E16" s="27" t="n">
+        <v>61.68</v>
       </c>
       <c r="F16" s="10">
         <f>(E16-C4)/C4</f>
@@ -1197,7 +1193,7 @@
       </c>
       <c r="I16" s="6" t="inlineStr">
         <is>
-          <t>감사하다</t>
+          <t>Thanks</t>
         </is>
       </c>
       <c r="J16" s="7" t="n">
@@ -1205,25 +1201,29 @@
       </c>
       <c r="L16" s="6" t="inlineStr">
         <is>
-          <t>하락 마디</t>
-        </is>
-      </c>
-      <c r="M16" s="17" t="n"/>
+          <t>Node</t>
+        </is>
+      </c>
+      <c r="M16" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NVDA is arrived new node. -39%    TSLA is arrived new node. -66%    </t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>엔비디아</t>
-        </is>
-      </c>
-      <c r="C17" s="30" t="n">
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="C17" s="27" t="n">
         <v>143.15</v>
       </c>
       <c r="D17" s="10">
         <f>(C17-C5)/C5</f>
         <v/>
       </c>
-      <c r="E17" s="31" t="n">
+      <c r="E17" s="28" t="n">
         <v>177.02</v>
       </c>
       <c r="F17" s="10">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="I17" s="6" t="inlineStr">
         <is>
-          <t>인생역전</t>
+          <t>Turn point</t>
         </is>
       </c>
       <c r="J17" s="7" t="n">
@@ -1244,25 +1244,25 @@
       </c>
       <c r="L17" s="6" t="inlineStr">
         <is>
-          <t>금리 관련</t>
-        </is>
-      </c>
-      <c r="M17" s="17" t="n"/>
+          <t>FED interest</t>
+        </is>
+      </c>
+      <c r="M17" s="17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="B18" s="11" t="inlineStr">
         <is>
-          <t>테슬라</t>
-        </is>
-      </c>
-      <c r="C18" s="30" t="n">
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="C18" s="27" t="n">
         <v>108.1</v>
       </c>
       <c r="D18" s="10">
         <f>(C18-C6)/C6</f>
         <v/>
       </c>
-      <c r="E18" s="30" t="n">
+      <c r="E18" s="27" t="n">
         <v>131.49</v>
       </c>
       <c r="F18" s="10">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="I18" s="6" t="inlineStr">
         <is>
-          <t>기회</t>
+          <t>Chance</t>
         </is>
       </c>
       <c r="J18" s="7" t="n">
@@ -1283,26 +1283,26 @@
       </c>
       <c r="L18" s="6" t="inlineStr">
         <is>
-          <t>경기 관련</t>
-        </is>
-      </c>
-      <c r="M18" s="17" t="n"/>
+          <t>CPI</t>
+        </is>
+      </c>
+      <c r="M18" s="17" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="B19" s="13" t="inlineStr">
-        <is>
-          <t>코카콜라</t>
-        </is>
-      </c>
-      <c r="C19" s="30" t="n">
-        <v>62.95</v>
+      <c r="B19" s="14" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="C19" s="27" t="n">
+        <v>89.12</v>
       </c>
       <c r="D19" s="10">
         <f>(C19-C7)/C7</f>
         <v/>
       </c>
-      <c r="E19" s="30" t="n">
-        <v>61.68</v>
+      <c r="E19" s="27" t="n">
+        <v>91.29000000000001</v>
       </c>
       <c r="F19" s="10">
         <f>(E19-C7)/C7</f>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I19" s="6" t="inlineStr">
         <is>
-          <t>할인찬스</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="J19" s="7" t="n">
@@ -1324,17 +1324,17 @@
     <row r="20">
       <c r="B20" s="15" t="inlineStr">
         <is>
-          <t>펩시</t>
-        </is>
-      </c>
-      <c r="C20" s="30" t="n">
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="C20" s="27" t="n">
         <v>179.41</v>
       </c>
       <c r="D20" s="10">
         <f>(C20-C8)/C8</f>
         <v/>
       </c>
-      <c r="E20" s="30" t="n">
+      <c r="E20" s="27" t="n">
         <v>176.06</v>
       </c>
       <c r="F20" s="10">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="I20" s="6" t="inlineStr">
         <is>
-          <t>매도추천</t>
+          <t>Sell now</t>
         </is>
       </c>
       <c r="J20" s="7" t="n">
@@ -1360,14 +1360,14 @@
           <t>ASML</t>
         </is>
       </c>
-      <c r="C21" s="30" t="n">
+      <c r="C21" s="27" t="n">
         <v>549.5700000000001</v>
       </c>
       <c r="D21" s="10">
         <f>(C21-C9)/C9</f>
         <v/>
       </c>
-      <c r="E21" s="30" t="n">
+      <c r="E21" s="27" t="n">
         <v>606.4</v>
       </c>
       <c r="F21" s="10">
@@ -1380,7 +1380,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="26" t="n">
+      <c r="A22" s="19" t="n">
         <v>408.71</v>
       </c>
       <c r="B22" s="8" t="inlineStr">
@@ -1388,14 +1388,14 @@
           <t>QQQ</t>
         </is>
       </c>
-      <c r="C22" s="30" t="n">
+      <c r="C22" s="27" t="n">
         <v>264.48</v>
       </c>
       <c r="D22" s="10">
         <f>(C22-$A$22)/$A$22</f>
         <v/>
       </c>
-      <c r="E22" s="30" t="n">
+      <c r="E22" s="27" t="n">
         <v>281.54</v>
       </c>
       <c r="F22" s="10">
@@ -1408,7 +1408,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="26" t="n">
+      <c r="A23" s="19" t="n">
         <v>94.54000000000001</v>
       </c>
       <c r="B23" s="8" t="inlineStr">
@@ -1416,14 +1416,14 @@
           <t>SPY</t>
         </is>
       </c>
-      <c r="C23" s="30" t="n">
+      <c r="C23" s="27" t="n">
         <v>380.82</v>
       </c>
       <c r="D23" s="10">
         <f>(C23-$A$24)/$A$24</f>
         <v/>
       </c>
-      <c r="E23" s="30" t="n">
+      <c r="E23" s="27" t="n">
         <v>397.77</v>
       </c>
       <c r="F23" s="10">
@@ -1436,7 +1436,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="26" t="n">
+      <c r="A24" s="19" t="n">
         <v>479.98</v>
       </c>
     </row>
